--- a/outputs/rpwa1-2.xlsx
+++ b/outputs/rpwa1-2.xlsx
@@ -4,6 +4,9 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -397,52 +400,5547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Text</v>
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Form RPWA 1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>--- Page 1 ---</v>
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Government of Rajasthan</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Government of Rajasthan  Public Works Department, Jaipur  PWD103: X.En.PWD. Electric Div.Udr. (12189)  May, 2022 CASH BOOK ( Ver 1.0 )  (Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)  Form RPWA 1  RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  1   Opening Balance   0.00  2   0.00   12-05-2022   Tvno: 394   GST Adjustment Bill   1944.00   1,944   8658-00-139-00-00  3   19-05-2022   TVNo: 8634   Arun Electricals (AgreeMentNo 56/2021- 22, Electric Repair and Mtc work in Treasury Office Rajsamand)  77,534.00   2825: SD2, 1883: I-Tax, 1884: GSTIN Deduction, 942: Labour-Welfare, 70000: MD5,  19-05-2022   Tvno: 8634   Arun Electricals (Wo.No.:1136 , Wo. Date:06/01/2022, AgreeMentNo 56/2021- 22, Electric Repair and Mtc work in Treasury Office Rajsamand) , Paymanager Bill No: 39077374, Bill Type: Work Order Payments (2 &amp; Final)  77,534   16616.00   94,150   2059-80-053-19-00-21-V-P  4   0.00   19-05-2022   Tvno: 8635   BHARTI KASERA , Paymanager Bill No: 39089755, Bill Type: HR Payment Less than 30 thousands  8475.00   8,475   2059-80-053-01-01-21-V-P  5   0.00   19-05-2022   Tvno: 8636   Royal Computech , Paymanager Bill No: 39089782, Bill Type: HR Payment Less than 30 thousands  1900.00   1,900   8443-00-108-00-00  6   24-05-2022   CrNo: Ch No: 1464429  Anju Electricals   200.00   0075-00-800-52-01   24-05-2022   ChlnNo: 1464429 GRN:62568101  Remittance to Treasury   1,500   0.00   1,500   0075-00-800-52-01, 8443- 00-108-00-00  7   24-05-2022   CrNo: Ch No: 1464429  Anju Electricals   1,300.00   8443-00-108-00-00   0.00  8   26-05-2022   CrNo: 063386/55   Seema Electricals   800.00   0075-00-800-52-01   26-05-2022   ChlnNo: 1560751 GRN:62656111  Remittance to Treasury   2,800   0.00   2,800   0075-00-800-52-01, 8443- 00-108-00-00  9   26-05-2022   CrNo: 063386/56   Vikas Enterprises   1,800.00   0075-00-800-52-01   26-05-2022   Tvno: 9875   Yashaswini Enterprises , Paymanager Bill No: 39859688, Bill Type: Deposit Refund  131958.00   1,31,958   8443-00-108-00-00  10   26-05-2022   CrNo: Ch No: 1560751  Sheetal Refrigeration and Electricals  200.00   0075-00-800-52-01   0.00  11   26-05-2022   CrNo: Ch No: 1560751  Sheetal Refrigeration and Electricals  2,600.00   8443-00-108-00-00   0.00  12   0.00   27-05-2022   ChlnNo: 1614831 GRN:62702956  Remittance to Treasury   2,600   0.00   2,600   0075-00-800-52-01  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:54 PM) Page 1 of 3</v>
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>Public Works Department, Jaipur</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>--- Page 2 ---</v>
+        <v>PWD103: X.En.PWD. Electric Div.Udr.</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>CASH BOOK (</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Ver 1.0 )</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>May, 2022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  13   31-05-2022   TVNo: 10401   Mitul Enterprises (AgreeMentNo 75/2021- 22, Electric Repair and Maintenance work in Residence No J1/3, Judge Commercial Court, Udaipur)  3,473.00   1736: SD2, 1158: I-Tax, 579: Labour-Welfare,  31-05-2022   Tvno: 10401   Mitul Enterprises (Wo.No.:122985400 , Wo. Date:11/03/2022, AgreeMentNo 75/2021- 22, Electric Repair and Maintenance work in Residence No J1/3, Judge Commercial Court, Udaipur) , Paymanager Bill No: 39859593, Bill Type: Work Order Payments (1 &amp; Final)  3,473   54397.00   57,870   2216-05-053-02-02-21-V-P  14   31-05-2022   TVNo: 10402   Santosh Electricals   84.00   84: I-Tax,   31-05-2022   Tvno: 10402   Santosh Electricals , Paymanager Bill No: 39859627, Bill Type: HR Payment Less than 30 thousands  84   4116.00   4,200   2216-05-053-02-02-21-V-P  15   31-05-2022   TVNo: 10403   Santosh Electricals   38.00   38: I-Tax,   31-05-2022   Tvno: 10403   Santosh Electricals , Paymanager Bill No: 39859638, Bill Type: HR Payment Less than 30 thousands  38   1862.00   1,900   2216-05-053-02-02-21-V-P  16   31-05-2022   TVNo: 10406   Bharti Decorators   781.00   781: I-Tax,   31-05-2022   Tvno: 10404   Arun Electricals , Paymanager Bill No: 39859668, Bill Type: Deposit Refund  8949.00   8,949   8443-00-108-00-00  17   31-05-2022   TVNo: 10407   Bharti Decorators   140.00   140: I-Tax,   31-05-2022   Tvno: 10405   Krim Engineering , Paymanager Bill No: 39859682, Bill Type: Deposit Refund  20709.00   20,709   8443-00-108-00-00  18   31-05-2022   TVNo: 10408   Mitul Enterprises   217.00   217: I-Tax,   31-05-2022   Tvno: 10406   Bharti Decorators , Paymanager Bill No: 39859702, Bill Type: HR Payment (Contingency/Misc)  781   38268.00   39,049   2059-80-053-01-01-21-V-P  19   31-05-2022   TVNo: 10409   Abhinav Engineering and Suppliers  47.00   47: I-Tax,   31-05-2022   Tvno: 10407   Bharti Decorators , Paymanager Bill No: 39859708, Bill Type: HR Payment Less than 30 thousands  140   6866.00   7,006   2059-80-053-01-01-21-V-P  20   31-05-2022   TVNo: 10410   Abhinav Engineering and Suppliers  59.00   59: I-Tax,   31-05-2022   Tvno: 10408   Mitul Enterprises , Paymanager Bill No: 39859715, Bill Type: HR Payment Less than 30 thousands  217   10636.00   10,853   2059-80-053-01-01-21-V-P  21   31-05-2022   TVNo: 10411   Vikas Enterprises (AgreeMentNo 29/2021- 22, Supply of experienced wireman Electricians for day to day maintenance for MB hospital and its associates building Udaipur)  971.00   485: I-Tax, 486: GSTIN Deduction,  31-05-2022   Tvno: 10409   Abhinav Engineering and Suppliers , Paymanager Bill No: 39859720, Bill Type: HR Payment Less than 30 thousands  47   2313.00   2,360   2059-80-053-01-01-21-V-P  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:54 PM) Page 2 of 3</v>
+        <v>(12189)</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>--- Page 3 ---</v>
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>(Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Signature of Sr.DAO/DAO/DA with seal   Signature of DO with seal  (A.L.Verma, Sr.D.A.O.)   (Deepak Pareek, Ee Pwd Elect Dn Udaipur)  RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  22   0.00   31-05-2022   Tvno: 10410   Abhinav Engineering and Suppliers , Paymanager Bill No: 39859726, Bill Type: HR Payment Less than 30 thousands  59   2891.00   2,950   2059-80-053-01-01-21-V-P  23   0.00   31-05-2022   Tvno: 10411   Vikas Enterprises (Wo.No.:531 , Wo. Date:01/09/2021, AgreeMentNo 29/2021- 22, Supply of experienced wireman Electricians for day to day maintenance for MB hospital and its associates building Udaipur) , Paymanager Bill No: 39859735, Bill Type: Work Order Payments (3 Running)  971   23261.00   24,232   8443-00-108-00-00  24   0.00   31-05-2022   Tvno: 10446   BHARTI KASERA , Paymanager Bill No: 39882013, Bill Type: HR Payment Less than 30 thousands  8495.00   8,495   2059-80-053-01-01-21-V-P  25   0.00   31-05-2022   Tvno: 10447   Sysnet Services , Paymanager Bill No: 39882016, Bill Type: HR Payment Less than 30 thousands  3050.00   3,050   2059-80-053-01-01-21-V-P  26   Closing Balance  90244.00   90244.00   346706.00   436950.00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:54 PM) Page 3 of 3</v>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C8" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G8" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D9" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>Cash</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Treasury Total</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Opening Balance</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2</v>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E12" t="str">
+        <v>12-05-2022</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Tvno: 394</v>
+      </c>
+      <c r="G12" t="str">
+        <v>GST Adjustment Bill</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v>1944.00</v>
+      </c>
+      <c r="J12" t="str">
+        <v>1,944</v>
+      </c>
+      <c r="K12" t="str">
+        <v>8658-00-139-00-00</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3 19-05-2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>TVNo: 8634 Arun Electricals</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>77,534.00 2825: SD2, 1883: I-Tax,</v>
+      </c>
+      <c r="E13" t="str">
+        <v>19-05-2022</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Tvno: 8634</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Arun Electricals</v>
+      </c>
+      <c r="H13" t="str">
+        <v>77,534</v>
+      </c>
+      <c r="I13" t="str">
+        <v>16616.00</v>
+      </c>
+      <c r="J13" t="str">
+        <v>94,150</v>
+      </c>
+      <c r="K13" t="str">
+        <v>2059-80-053-19-00-21-V-P</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v>(AgreeMentNo 56/2021-</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v>1884: GSTIN Deduction,</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>(Wo.No.:1136 , Wo.</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v>22, Electric Repair and</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>942: Labour-Welfare,</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>Date:06/01/2022,</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>Mtc work in Treasury</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>70000: MD5,</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>AgreeMentNo 56/2021-</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v>Office Rajsamand)</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>22, Electric Repair and</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>Mtc work in Treasury</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>Office Rajsamand) ,</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>39077374, Bill Type:</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>(2 &amp; Final)</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>4</v>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E24" t="str">
+        <v>19-05-2022</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Tvno: 8635</v>
+      </c>
+      <c r="G24" t="str">
+        <v>BHARTI KASERA ,</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v>8475.00</v>
+      </c>
+      <c r="J24" t="str">
+        <v>8,475</v>
+      </c>
+      <c r="K24" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>39089755, Bill Type:</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>5</v>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E29" t="str">
+        <v>19-05-2022</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Tvno: 8636</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Royal Computech ,</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v>1900.00</v>
+      </c>
+      <c r="J29" t="str">
+        <v>1,900</v>
+      </c>
+      <c r="K29" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>39089782, Bill Type:</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>6 24-05-2022</v>
+      </c>
+      <c r="B34" t="str">
+        <v>CrNo: Ch No: Anju Electricals</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v>200.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E34" t="str">
+        <v>24-05-2022</v>
+      </c>
+      <c r="F34" t="str">
+        <v>ChlnNo: 1464429</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="H34" t="str">
+        <v>1,500</v>
+      </c>
+      <c r="I34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J34" t="str">
+        <v>1,500</v>
+      </c>
+      <c r="K34" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v>1464429</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>GRN:62568101</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>7 24-05-2022</v>
+      </c>
+      <c r="B36" t="str">
+        <v>CrNo: Ch No: Anju Electricals</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v>1,300.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>1464429</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8 26-05-2022</v>
+      </c>
+      <c r="B38" t="str">
+        <v>CrNo: 063386/55 Seema Electricals</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>800.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E38" t="str">
+        <v>26-05-2022</v>
+      </c>
+      <c r="F38" t="str">
+        <v>ChlnNo: 1560751</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="H38" t="str">
+        <v>2,800</v>
+      </c>
+      <c r="I38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J38" t="str">
+        <v>2,800</v>
+      </c>
+      <c r="K38" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>GRN:62656111</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>9 26-05-2022</v>
+      </c>
+      <c r="B40" t="str">
+        <v>CrNo: 063386/56 Vikas Enterprises</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>1,800.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E40" t="str">
+        <v>26-05-2022</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Tvno: 9875</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Yashaswini Enterprises</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v>131958.00</v>
+      </c>
+      <c r="J40" t="str">
+        <v>1,31,958</v>
+      </c>
+      <c r="K40" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>, Paymanager Bill No:</v>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>39859688, Bill Type:</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>10 26-05-2022</v>
+      </c>
+      <c r="B44" t="str">
+        <v>CrNo: Ch No: Sheetal Refrigeration</v>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v>200.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v>1560751 and Electricals</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>11 26-05-2022</v>
+      </c>
+      <c r="B46" t="str">
+        <v>CrNo: Ch No: Sheetal Refrigeration</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v>2,600.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v>1560751 and Electricals</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>12</v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E48" t="str">
+        <v>27-05-2022</v>
+      </c>
+      <c r="F48" t="str">
+        <v>ChlnNo: 1614831</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="H48" t="str">
+        <v>2,600</v>
+      </c>
+      <c r="I48" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J48" t="str">
+        <v>2,600</v>
+      </c>
+      <c r="K48" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v>GRN:62702956</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Page 1 of 3</v>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:54 PM)</v>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K50"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="H1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C2" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="H2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D3" t="str">
+        <v>(Cash)</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Receipt</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>13 31-05-2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TVNo: 10401 Mitul Enterprises</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>3,473.00</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1736: SD2, 1158: I-Tax,</v>
+      </c>
+      <c r="F5" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Tvno: 10401 Mitul Enterprises</v>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v>3,473 54397.00</v>
+      </c>
+      <c r="J5" t="str">
+        <v>57,870</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2216-05-053-02-02-21-V-P</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>(AgreeMentNo 75/2021-</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>579: Labour-Welfare,</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v>(Wo.No.:122985400 ,</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>22, Electric Repair and</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>Wo. Date:11/03/2022,</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>Maintenance work in</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v>AgreeMentNo 75/2021-</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>Residence No J1/3,</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v>22, Electric Repair and</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v>Judge Commercial</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v>Maintenance work in</v>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>Court, Udaipur)</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>Residence No J1/3,</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v>Judge Commercial</v>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>Court, Udaipur) ,</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>39859593, Bill Type:</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>(1 &amp; Final)</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>14 31-05-2022</v>
+      </c>
+      <c r="B18" t="str">
+        <v>TVNo: 10402 Santosh Electricals</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>84.00</v>
+      </c>
+      <c r="E18" t="str">
+        <v>84: I-Tax,</v>
+      </c>
+      <c r="F18" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Tvno: 10402 Santosh Electricals ,</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v>84 4116.00</v>
+      </c>
+      <c r="J18" t="str">
+        <v>4,200</v>
+      </c>
+      <c r="K18" t="str">
+        <v>2216-05-053-02-02-21-V-P</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>39859627, Bill Type:</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>15 31-05-2022</v>
+      </c>
+      <c r="B23" t="str">
+        <v>TVNo: 10403 Santosh Electricals</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>38.00</v>
+      </c>
+      <c r="E23" t="str">
+        <v>38: I-Tax,</v>
+      </c>
+      <c r="F23" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Tvno: 10403 Santosh Electricals ,</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v>38 1862.00</v>
+      </c>
+      <c r="J23" t="str">
+        <v>1,900</v>
+      </c>
+      <c r="K23" t="str">
+        <v>2216-05-053-02-02-21-V-P</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>39859638, Bill Type:</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>16 31-05-2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>TVNo: 10406 Bharti Decorators</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>781.00</v>
+      </c>
+      <c r="E28" t="str">
+        <v>781: I-Tax,</v>
+      </c>
+      <c r="F28" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Tvno: 10404 Arun Electricals ,</v>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v>8949.00</v>
+      </c>
+      <c r="J28" t="str">
+        <v>8,949</v>
+      </c>
+      <c r="K28" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>39859668, Bill Type:</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>17 31-05-2022</v>
+      </c>
+      <c r="B32" t="str">
+        <v>TVNo: 10407 Bharti Decorators</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>140.00</v>
+      </c>
+      <c r="E32" t="str">
+        <v>140: I-Tax,</v>
+      </c>
+      <c r="F32" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Tvno: 10405 Krim Engineering ,</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v>20709.00</v>
+      </c>
+      <c r="J32" t="str">
+        <v>20,709</v>
+      </c>
+      <c r="K32" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>39859682, Bill Type:</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>18 31-05-2022</v>
+      </c>
+      <c r="B36" t="str">
+        <v>TVNo: 10408 Mitul Enterprises</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v>217.00</v>
+      </c>
+      <c r="E36" t="str">
+        <v>217: I-Tax,</v>
+      </c>
+      <c r="F36" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Tvno: 10406 Bharti Decorators ,</v>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v>781 38268.00</v>
+      </c>
+      <c r="J36" t="str">
+        <v>39,049</v>
+      </c>
+      <c r="K36" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>39859702, Bill Type:</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>HR Payment</v>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>(Contingency/Misc)</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>19 31-05-2022</v>
+      </c>
+      <c r="B41" t="str">
+        <v>TVNo: 10409 Abhinav Engineering and</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v>47.00</v>
+      </c>
+      <c r="E41" t="str">
+        <v>47: I-Tax,</v>
+      </c>
+      <c r="F41" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Tvno: 10407 Bharti Decorators ,</v>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v>140 6866.00</v>
+      </c>
+      <c r="J41" t="str">
+        <v>7,006</v>
+      </c>
+      <c r="K41" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v>Suppliers</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>39859708, Bill Type:</v>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>20 31-05-2022</v>
+      </c>
+      <c r="B46" t="str">
+        <v>TVNo: 10410 Abhinav Engineering and</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v>59.00</v>
+      </c>
+      <c r="E46" t="str">
+        <v>59: I-Tax,</v>
+      </c>
+      <c r="F46" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Tvno: 10408 Mitul Enterprises ,</v>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v>217 10636.00</v>
+      </c>
+      <c r="J46" t="str">
+        <v>10,853</v>
+      </c>
+      <c r="K46" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v>Suppliers</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>39859715, Bill Type:</v>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>21 31-05-2022</v>
+      </c>
+      <c r="B51" t="str">
+        <v>TVNo: 10411 Vikas Enterprises</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>971.00</v>
+      </c>
+      <c r="E51" t="str">
+        <v>485: I-Tax, 486: GSTIN</v>
+      </c>
+      <c r="F51" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Tvno: 10409 Abhinav Engineering</v>
+      </c>
+      <c r="H51" t="str">
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <v>47 2313.00</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2,360</v>
+      </c>
+      <c r="K51" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v>(AgreeMentNo 29/2021-</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v>Deduction,</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v>and Suppliers ,</v>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <v>22, Supply of</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v>experienced wireman</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v>39859720, Bill Type:</v>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v>Electricians for day to</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="H55" t="str">
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <v>day maintenance for MB</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="H56" t="str">
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <v/>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <v>hospital and its</v>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <v>associates building</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <v>Udaipur)</v>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Page 2 of 3</v>
+      </c>
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:54 PM)</v>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K60"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="50.83203125" customWidth="1"/>
+    <col min="11" max="11" width="27.83203125" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="D1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="D2" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="I2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No.</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="E3" t="str">
+        <v>(Cash)</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Receipt</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>22</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Tvno: 10410 Abhinav Engineering</v>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v>59 2891.00</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2,950</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v>and Suppliers ,</v>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v>39859726, Bill Type:</v>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>23</v>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Tvno: 10411 Vikas Enterprises</v>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v>971 23261.00</v>
+      </c>
+      <c r="K11" t="str">
+        <v>24,232</v>
+      </c>
+      <c r="L11" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v>(Wo.No.:531 , Wo.</v>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v>Date:01/09/2021,</v>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v>AgreeMentNo 29/2021-</v>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v>22, Supply of</v>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v>experienced wireman</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v>Electricians for day to</v>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v>day maintenance for</v>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v>MB hospital and its</v>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v>associates building</v>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v>Bill No: 39859735, Bill</v>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v>Payments (3 Running)</v>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Tvno: 10446 BHARTI KASERA ,</v>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v>8495.00</v>
+      </c>
+      <c r="K25" t="str">
+        <v>8,495</v>
+      </c>
+      <c r="L25" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v>39882013, Bill Type:</v>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>25</v>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>31-05-2022</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Tvno: 10447 Sysnet Services ,</v>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v>3050.00</v>
+      </c>
+      <c r="K30" t="str">
+        <v>3,050</v>
+      </c>
+      <c r="L30" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v>39882016, Bill Type:</v>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>26</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v>Closing Balance</v>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v>90244.00</v>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v>90244.00 346706.00</v>
+      </c>
+      <c r="K36" t="str">
+        <v>436950.00</v>
+      </c>
+      <c r="L36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Signature of Sr.DAO/DAO/DA with seal</v>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v>Signature of DO with seal</v>
+      </c>
+      <c r="L37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>(A.L.Verma, Sr.D.A.O.)</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v>(Deepak Pareek, Ee Pwd Elect Dn Udaipur)</v>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Page 3 of 3</v>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:01:54 PM)</v>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L39"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PDF to Excel Extraction Summary</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Source File:</v>
+      </c>
+      <c r="B3" t="str">
+        <v>rpwa1-2.pdf</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Extraction Date:</v>
+      </c>
+      <c r="B4" t="str">
+        <v>9/16/2025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Tables Extracted:</v>
+      </c>
+      <c r="B5" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Table Details:</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Table #</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Rows</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Columns</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Confidence</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Sheet Name</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Table 1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>49</v>
+      </c>
+      <c r="C9" t="str">
+        <v>11</v>
+      </c>
+      <c r="D9" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Table 1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Table 2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>59</v>
+      </c>
+      <c r="C10" t="str">
+        <v>11</v>
+      </c>
+      <c r="D10" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Table 2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Table 3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>38</v>
+      </c>
+      <c r="C11" t="str">
+        <v>12</v>
+      </c>
+      <c r="D11" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Table 3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>